--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/24/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/24/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.1937</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5193.7</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.30549</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>5305.49</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.32382</v>
+        <v>7.84959</v>
       </c>
       <c r="C9" t="n">
-        <v>5323.82</v>
+        <v>7849.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247925</v>
       </c>
       <c r="B10" t="n">
-        <v>5.336189999999999</v>
+        <v>8.54918</v>
       </c>
       <c r="C10" t="n">
-        <v>5336.19</v>
+        <v>8549.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278893</v>
+        <v>0.27885</v>
       </c>
       <c r="B11" t="n">
-        <v>5.33382</v>
+        <v>8.93975</v>
       </c>
       <c r="C11" t="n">
-        <v>5333.82</v>
+        <v>8939.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309818</v>
+        <v>0.309775</v>
       </c>
       <c r="B12" t="n">
-        <v>5.32159</v>
+        <v>9.302620000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>5321.59</v>
+        <v>9302.620000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340743</v>
+        <v>0.3407</v>
       </c>
       <c r="B13" t="n">
-        <v>5.305770000000001</v>
+        <v>9.52702</v>
       </c>
       <c r="C13" t="n">
-        <v>5305.77</v>
+        <v>9527.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371668</v>
+        <v>0.371625</v>
       </c>
       <c r="B14" t="n">
-        <v>5.2902</v>
+        <v>9.638030000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>5290.2</v>
+        <v>9638.030000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402593</v>
+        <v>0.40255</v>
       </c>
       <c r="B15" t="n">
-        <v>5.27295</v>
+        <v>9.714980000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>5272.95</v>
+        <v>9714.98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.433475</v>
       </c>
       <c r="B16" t="n">
-        <v>5.25278</v>
+        <v>9.716749999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>5252.78</v>
+        <v>9716.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.4644</v>
       </c>
       <c r="B17" t="n">
-        <v>5.23303</v>
+        <v>9.695549999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>5233.03</v>
+        <v>9695.549999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495325</v>
       </c>
       <c r="B18" t="n">
-        <v>5.21159</v>
+        <v>9.65835</v>
       </c>
       <c r="C18" t="n">
-        <v>5211.59</v>
+        <v>9658.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526293</v>
+        <v>0.52625</v>
       </c>
       <c r="B19" t="n">
-        <v>5.18897</v>
+        <v>9.616379999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>5188.97</v>
+        <v>9616.379999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557218</v>
+        <v>0.557175</v>
       </c>
       <c r="B20" t="n">
-        <v>5.16556</v>
+        <v>9.57132</v>
       </c>
       <c r="C20" t="n">
-        <v>5165.56</v>
+        <v>9571.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.5881</v>
       </c>
       <c r="B21" t="n">
-        <v>5.14157</v>
+        <v>9.523870000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>5141.57</v>
+        <v>9523.870000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.619142</v>
       </c>
       <c r="B22" t="n">
-        <v>5.11679</v>
+        <v>9.469370000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>5116.79</v>
+        <v>9469.370000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650315</v>
       </c>
       <c r="B23" t="n">
-        <v>5.09086</v>
+        <v>9.41032</v>
       </c>
       <c r="C23" t="n">
-        <v>5090.86</v>
+        <v>9410.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.681487</v>
       </c>
       <c r="B24" t="n">
-        <v>5.064109999999999</v>
+        <v>9.346830000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>5064.11</v>
+        <v>9346.83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712664</v>
       </c>
       <c r="B25" t="n">
-        <v>5.03559</v>
+        <v>9.278450000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>5035.59</v>
+        <v>9278.450000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74388</v>
+        <v>0.743837</v>
       </c>
       <c r="B26" t="n">
-        <v>5.00503</v>
+        <v>9.204780000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>5005.03</v>
+        <v>9204.780000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775057</v>
+        <v>0.775014</v>
       </c>
       <c r="B27" t="n">
-        <v>4.972420000000001</v>
+        <v>9.12997</v>
       </c>
       <c r="C27" t="n">
-        <v>4972.42</v>
+        <v>9129.969999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.806187</v>
       </c>
       <c r="B28" t="n">
-        <v>4.93778</v>
+        <v>9.046530000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>4937.78</v>
+        <v>9046.530000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837402</v>
+        <v>0.837359</v>
       </c>
       <c r="B29" t="n">
-        <v>4.90134</v>
+        <v>8.963950000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>4901.34</v>
+        <v>8963.950000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.868536</v>
       </c>
       <c r="B30" t="n">
-        <v>4.86254</v>
+        <v>8.871510000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>4862.54</v>
+        <v>8871.51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.899709</v>
       </c>
       <c r="B31" t="n">
-        <v>4.82145</v>
+        <v>8.77957</v>
       </c>
       <c r="C31" t="n">
-        <v>4821.45</v>
+        <v>8779.57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930924</v>
+        <v>0.930881</v>
       </c>
       <c r="B32" t="n">
-        <v>4.77841</v>
+        <v>8.680059999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>4778.41</v>
+        <v>8680.059999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962101</v>
+        <v>0.962058</v>
       </c>
       <c r="B33" t="n">
-        <v>4.73311</v>
+        <v>8.57809</v>
       </c>
       <c r="C33" t="n">
-        <v>4733.11</v>
+        <v>8578.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993271</v>
+        <v>0.993231</v>
       </c>
       <c r="B34" t="n">
-        <v>3.6698</v>
+        <v>8.472020000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>3669.8</v>
+        <v>8472.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.0241</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>4.49352</v>
+        <v>8.359680000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>4493.52</v>
+        <v>8359.68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05512</v>
+        <v>1.05592</v>
       </c>
       <c r="B36" t="n">
-        <v>4.568930000000001</v>
+        <v>8.247219999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>4568.93</v>
+        <v>8247.219999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08594</v>
+        <v>1.08726</v>
       </c>
       <c r="B37" t="n">
-        <v>4.55736</v>
+        <v>7.287680000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>4557.36</v>
+        <v>7287.68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11677</v>
+        <v>1.11799</v>
       </c>
       <c r="B38" t="n">
-        <v>4.49173</v>
+        <v>9.339980000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4491.73</v>
+        <v>9339.98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14759</v>
+        <v>1.14912</v>
       </c>
       <c r="B39" t="n">
-        <v>4.434520000000001</v>
+        <v>6.17166</v>
       </c>
       <c r="C39" t="n">
-        <v>4434.52</v>
+        <v>6171.66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17841</v>
+        <v>1.17998</v>
       </c>
       <c r="B40" t="n">
-        <v>4.34145</v>
+        <v>7.72696</v>
       </c>
       <c r="C40" t="n">
-        <v>4341.45</v>
+        <v>7726.96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.20924</v>
+        <v>1.21108</v>
       </c>
       <c r="B41" t="n">
-        <v>4.30688</v>
+        <v>7.827380000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>4306.88</v>
+        <v>7827.38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24067</v>
+        <v>1.24176</v>
       </c>
       <c r="B42" t="n">
-        <v>4.22649</v>
+        <v>7.68547</v>
       </c>
       <c r="C42" t="n">
-        <v>4226.49</v>
+        <v>7685.47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27213</v>
+        <v>1.27313</v>
       </c>
       <c r="B43" t="n">
-        <v>4.14681</v>
+        <v>7.60705</v>
       </c>
       <c r="C43" t="n">
-        <v>4146.81</v>
+        <v>7607.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.3036</v>
+        <v>1.30395</v>
       </c>
       <c r="B44" t="n">
-        <v>4.08829</v>
+        <v>7.343290000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>4088.29</v>
+        <v>7343.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33506</v>
+        <v>1.33485</v>
       </c>
       <c r="B45" t="n">
-        <v>4.01662</v>
+        <v>7.156210000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>4016.62</v>
+        <v>7156.21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36653</v>
+        <v>1.36595</v>
       </c>
       <c r="B46" t="n">
-        <v>3.96508</v>
+        <v>6.99835</v>
       </c>
       <c r="C46" t="n">
-        <v>3965.08</v>
+        <v>6998.35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.398</v>
+        <v>1.39701</v>
       </c>
       <c r="B47" t="n">
-        <v>3.88614</v>
+        <v>6.91221</v>
       </c>
       <c r="C47" t="n">
-        <v>3886.14</v>
+        <v>6912.21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42923</v>
+        <v>1.42807</v>
       </c>
       <c r="B48" t="n">
-        <v>3.83178</v>
+        <v>6.778300000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>3831.78</v>
+        <v>6778.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45991</v>
+        <v>1.45913</v>
       </c>
       <c r="B49" t="n">
-        <v>3.7662</v>
+        <v>6.60585</v>
       </c>
       <c r="C49" t="n">
-        <v>3766.2</v>
+        <v>6605.85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49124</v>
+        <v>1.48985</v>
       </c>
       <c r="B50" t="n">
-        <v>3.70578</v>
+        <v>6.41128</v>
       </c>
       <c r="C50" t="n">
-        <v>3705.78</v>
+        <v>6411.28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.522</v>
+        <v>1.5212</v>
       </c>
       <c r="B51" t="n">
-        <v>3.63554</v>
+        <v>6.33933</v>
       </c>
       <c r="C51" t="n">
-        <v>3635.54</v>
+        <v>6339.33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55322</v>
+        <v>1.55195</v>
       </c>
       <c r="B52" t="n">
-        <v>3.57579</v>
+        <v>6.19505</v>
       </c>
       <c r="C52" t="n">
-        <v>3575.79</v>
+        <v>6195.05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58396</v>
+        <v>1.58317</v>
       </c>
       <c r="B53" t="n">
-        <v>3.50626</v>
+        <v>6.08936</v>
       </c>
       <c r="C53" t="n">
-        <v>3506.26</v>
+        <v>6089.36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61526</v>
+        <v>1.61406</v>
       </c>
       <c r="B54" t="n">
-        <v>3.45134</v>
+        <v>5.939010000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>3451.34</v>
+        <v>5939.01</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64587</v>
+        <v>1.64498</v>
       </c>
       <c r="B55" t="n">
-        <v>3.39521</v>
+        <v>5.82512</v>
       </c>
       <c r="C55" t="n">
-        <v>3395.21</v>
+        <v>5825.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67732</v>
+        <v>1.67612</v>
       </c>
       <c r="B56" t="n">
-        <v>3.33477</v>
+        <v>5.72391</v>
       </c>
       <c r="C56" t="n">
-        <v>3334.77</v>
+        <v>5723.91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70807</v>
+        <v>1.70677</v>
       </c>
       <c r="B57" t="n">
-        <v>3.27789</v>
+        <v>5.62437</v>
       </c>
       <c r="C57" t="n">
-        <v>3277.89</v>
+        <v>5624.37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73927</v>
+        <v>1.73817</v>
       </c>
       <c r="B58" t="n">
-        <v>3.22398</v>
+        <v>5.500640000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>3223.98</v>
+        <v>5500.64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77026</v>
+        <v>1.76908</v>
       </c>
       <c r="B59" t="n">
-        <v>3.17643</v>
+        <v>5.40796</v>
       </c>
       <c r="C59" t="n">
-        <v>3176.43</v>
+        <v>5407.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80099</v>
+        <v>1.79977</v>
       </c>
       <c r="B60" t="n">
-        <v>3.12468</v>
+        <v>5.28659</v>
       </c>
       <c r="C60" t="n">
-        <v>3124.68</v>
+        <v>5286.59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83233</v>
+        <v>1.83127</v>
       </c>
       <c r="B61" t="n">
-        <v>3.07816</v>
+        <v>5.23036</v>
       </c>
       <c r="C61" t="n">
-        <v>3078.16</v>
+        <v>5230.36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86304</v>
+        <v>1.86214</v>
       </c>
       <c r="B62" t="n">
-        <v>3.02929</v>
+        <v>5.13123</v>
       </c>
       <c r="C62" t="n">
-        <v>3029.29</v>
+        <v>5131.23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89407</v>
+        <v>1.89279</v>
       </c>
       <c r="B63" t="n">
-        <v>2.9892</v>
+        <v>5.029920000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>2989.2</v>
+        <v>5029.92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92532</v>
+        <v>1.92429</v>
       </c>
       <c r="B64" t="n">
-        <v>2.94204</v>
+        <v>4.98907</v>
       </c>
       <c r="C64" t="n">
-        <v>2942.04</v>
+        <v>4989.07</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95602</v>
+        <v>1.95524</v>
       </c>
       <c r="B65" t="n">
-        <v>2.90468</v>
+        <v>4.89697</v>
       </c>
       <c r="C65" t="n">
-        <v>2904.68</v>
+        <v>4896.97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98712</v>
+        <v>1.98576</v>
       </c>
       <c r="B66" t="n">
-        <v>2.86247</v>
+        <v>4.82001</v>
       </c>
       <c r="C66" t="n">
-        <v>2862.47</v>
+        <v>4820.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0183</v>
+        <v>2.01691</v>
       </c>
       <c r="B67" t="n">
-        <v>2.82765</v>
+        <v>4.73641</v>
       </c>
       <c r="C67" t="n">
-        <v>2827.65</v>
+        <v>4736.41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0487</v>
+        <v>2.04799</v>
       </c>
       <c r="B68" t="n">
-        <v>2.78963</v>
+        <v>4.70788</v>
       </c>
       <c r="C68" t="n">
-        <v>2789.63</v>
+        <v>4707.88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07939</v>
+        <v>2.07907</v>
       </c>
       <c r="B69" t="n">
-        <v>2.75998</v>
+        <v>4.623670000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>2759.98</v>
+        <v>4623.67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11123</v>
+        <v>2.10965</v>
       </c>
       <c r="B70" t="n">
-        <v>2.72353</v>
+        <v>4.57979</v>
       </c>
       <c r="C70" t="n">
-        <v>2723.53</v>
+        <v>4579.79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14195</v>
+        <v>2.1406</v>
       </c>
       <c r="B71" t="n">
-        <v>2.69348</v>
+        <v>4.50379</v>
       </c>
       <c r="C71" t="n">
-        <v>2693.48</v>
+        <v>4503.79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17267</v>
+        <v>2.17209</v>
       </c>
       <c r="B72" t="n">
-        <v>2.66324</v>
+        <v>4.46923</v>
       </c>
       <c r="C72" t="n">
-        <v>2663.24</v>
+        <v>4469.23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20384</v>
+        <v>2.20357</v>
       </c>
       <c r="B73" t="n">
-        <v>2.63675</v>
+        <v>4.40691</v>
       </c>
       <c r="C73" t="n">
-        <v>2636.75</v>
+        <v>4406.91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23493</v>
+        <v>2.23369</v>
       </c>
       <c r="B74" t="n">
-        <v>2.60483</v>
+        <v>4.37926</v>
       </c>
       <c r="C74" t="n">
-        <v>2604.83</v>
+        <v>4379.26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26601</v>
+        <v>2.26376</v>
       </c>
       <c r="B75" t="n">
-        <v>2.57813</v>
+        <v>4.338</v>
       </c>
       <c r="C75" t="n">
-        <v>2578.13</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2971</v>
+        <v>2.29524</v>
       </c>
       <c r="B76" t="n">
-        <v>2.55208</v>
+        <v>4.29814</v>
       </c>
       <c r="C76" t="n">
-        <v>2552.08</v>
+        <v>4298.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32744</v>
+        <v>2.32596</v>
       </c>
       <c r="B77" t="n">
-        <v>2.52756</v>
+        <v>4.30432</v>
       </c>
       <c r="C77" t="n">
-        <v>2527.56</v>
+        <v>4304.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35807</v>
+        <v>2.35668</v>
       </c>
       <c r="B78" t="n">
-        <v>2.51866</v>
+        <v>4.309670000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>2518.66</v>
+        <v>4309.67</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38839</v>
+        <v>2.3874</v>
       </c>
       <c r="B79" t="n">
-        <v>2.51457</v>
+        <v>4.29943</v>
       </c>
       <c r="C79" t="n">
-        <v>2514.57</v>
+        <v>4299.43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41864</v>
+        <v>2.41843</v>
       </c>
       <c r="B80" t="n">
-        <v>2.50411</v>
+        <v>4.29925</v>
       </c>
       <c r="C80" t="n">
-        <v>2504.11</v>
+        <v>4299.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45155</v>
+        <v>2.44699</v>
       </c>
       <c r="B81" t="n">
-        <v>2.49983</v>
+        <v>4.28086</v>
       </c>
       <c r="C81" t="n">
-        <v>2499.83</v>
+        <v>4280.86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48422</v>
+        <v>2.47515</v>
       </c>
       <c r="B82" t="n">
-        <v>2.491</v>
+        <v>4.253010000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>2491</v>
+        <v>4253.01</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.515</v>
+        <v>2.50331</v>
       </c>
       <c r="B83" t="n">
-        <v>2.48007</v>
+        <v>4.25959</v>
       </c>
       <c r="C83" t="n">
-        <v>2480.07</v>
+        <v>4259.59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54572</v>
+        <v>2.53147</v>
       </c>
       <c r="B84" t="n">
-        <v>2.46856</v>
+        <v>4.21851</v>
       </c>
       <c r="C84" t="n">
-        <v>2468.56</v>
+        <v>4218.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57644</v>
+        <v>2.56383</v>
       </c>
       <c r="B85" t="n">
-        <v>2.45746</v>
+        <v>4.20932</v>
       </c>
       <c r="C85" t="n">
-        <v>2457.46</v>
+        <v>4209.32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60716</v>
+        <v>2.59901</v>
       </c>
       <c r="B86" t="n">
-        <v>2.44805</v>
+        <v>4.18282</v>
       </c>
       <c r="C86" t="n">
-        <v>2448.05</v>
+        <v>4182.82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63788</v>
+        <v>2.63422</v>
       </c>
       <c r="B87" t="n">
-        <v>2.43558</v>
+        <v>4.15504</v>
       </c>
       <c r="C87" t="n">
-        <v>2435.58</v>
+        <v>4155.04</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.6686</v>
+        <v>2.66706</v>
       </c>
       <c r="B88" t="n">
-        <v>2.4237</v>
+        <v>4.14416</v>
       </c>
       <c r="C88" t="n">
-        <v>2423.7</v>
+        <v>4144.16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69912</v>
+        <v>2.69909</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41042</v>
+        <v>4.11009</v>
       </c>
       <c r="C89" t="n">
-        <v>2410.42</v>
+        <v>4110.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72763</v>
+        <v>2.73109</v>
       </c>
       <c r="B90" t="n">
-        <v>2.40113</v>
+        <v>4.07593</v>
       </c>
       <c r="C90" t="n">
-        <v>2401.13</v>
+        <v>4075.93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75579</v>
+        <v>2.76309</v>
       </c>
       <c r="B91" t="n">
-        <v>2.39283</v>
+        <v>4.07643</v>
       </c>
       <c r="C91" t="n">
-        <v>2392.83</v>
+        <v>4076.43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78395</v>
+        <v>2.79509</v>
       </c>
       <c r="B92" t="n">
-        <v>2.37799</v>
+        <v>4.05199</v>
       </c>
       <c r="C92" t="n">
-        <v>2377.99</v>
+        <v>4051.99</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81211</v>
+        <v>2.82709</v>
       </c>
       <c r="B93" t="n">
-        <v>2.36857</v>
+        <v>4.02236</v>
       </c>
       <c r="C93" t="n">
-        <v>2368.57</v>
+        <v>4022.36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84033</v>
+        <v>2.85909</v>
       </c>
       <c r="B94" t="n">
-        <v>2.3521</v>
+        <v>4.00714</v>
       </c>
       <c r="C94" t="n">
-        <v>2352.1</v>
+        <v>4007.14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87359</v>
+        <v>2.89109</v>
       </c>
       <c r="B95" t="n">
-        <v>2.34296</v>
+        <v>3.98361</v>
       </c>
       <c r="C95" t="n">
-        <v>2342.96</v>
+        <v>3983.61</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90862</v>
+        <v>2.92273</v>
       </c>
       <c r="B96" t="n">
-        <v>2.32747</v>
+        <v>3.95895</v>
       </c>
       <c r="C96" t="n">
-        <v>2327.47</v>
+        <v>3958.95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94382</v>
+        <v>2.95203</v>
       </c>
       <c r="B97" t="n">
-        <v>2.31742</v>
+        <v>3.92783</v>
       </c>
       <c r="C97" t="n">
-        <v>2317.42</v>
+        <v>3927.83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97732</v>
+        <v>2.98084</v>
       </c>
       <c r="B98" t="n">
-        <v>2.29982</v>
+        <v>3.8918</v>
       </c>
       <c r="C98" t="n">
-        <v>2299.82</v>
+        <v>3891.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00942</v>
+        <v>3.00964</v>
       </c>
       <c r="B99" t="n">
-        <v>2.28903</v>
+        <v>3.87334</v>
       </c>
       <c r="C99" t="n">
-        <v>2289.03</v>
+        <v>3873.34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04142</v>
+        <v>3.03844</v>
       </c>
       <c r="B100" t="n">
-        <v>2.27274</v>
+        <v>3.86671</v>
       </c>
       <c r="C100" t="n">
-        <v>2272.74</v>
+        <v>3866.71</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07342</v>
+        <v>3.06724</v>
       </c>
       <c r="B101" t="n">
-        <v>2.26369</v>
+        <v>3.84747</v>
       </c>
       <c r="C101" t="n">
-        <v>2263.69</v>
+        <v>3847.47</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10542</v>
+        <v>3.09604</v>
       </c>
       <c r="B102" t="n">
-        <v>2.24842</v>
+        <v>3.81784</v>
       </c>
       <c r="C102" t="n">
-        <v>2248.42</v>
+        <v>3817.84</v>
       </c>
     </row>
   </sheetData>
